--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H2">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N2">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O2">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P2">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q2">
-        <v>54.84368176971378</v>
+        <v>25.822402924468</v>
       </c>
       <c r="R2">
-        <v>493.593135927424</v>
+        <v>232.401626320212</v>
       </c>
       <c r="S2">
-        <v>0.02974421749097534</v>
+        <v>0.01614768482523384</v>
       </c>
       <c r="T2">
-        <v>0.02974421749097534</v>
+        <v>0.01614768482523384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H3">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I3">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J3">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.929707</v>
       </c>
       <c r="O3">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P3">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q3">
-        <v>59.96904066617601</v>
+        <v>26.11055071581101</v>
       </c>
       <c r="R3">
-        <v>539.7213659955841</v>
+        <v>234.994956442299</v>
       </c>
       <c r="S3">
-        <v>0.03252393221501243</v>
+        <v>0.01632787408691116</v>
       </c>
       <c r="T3">
-        <v>0.03252393221501243</v>
+        <v>0.01632787408691116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H4">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I4">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J4">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N4">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O4">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P4">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q4">
-        <v>50.63684893115023</v>
+        <v>29.73177157650967</v>
       </c>
       <c r="R4">
-        <v>455.731640380352</v>
+        <v>267.585944188587</v>
       </c>
       <c r="S4">
-        <v>0.02746266113187052</v>
+        <v>0.01859235479043689</v>
       </c>
       <c r="T4">
-        <v>0.02746266113187052</v>
+        <v>0.01859235479043688</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H5">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I5">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J5">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N5">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O5">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P5">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q5">
-        <v>9.796525970645334</v>
+        <v>4.378695170826223</v>
       </c>
       <c r="R5">
-        <v>88.16873373580799</v>
+        <v>39.408256537436</v>
       </c>
       <c r="S5">
-        <v>0.005313100611122298</v>
+        <v>0.00273815685438314</v>
       </c>
       <c r="T5">
-        <v>0.005313100611122298</v>
+        <v>0.00273815685438314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H6">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I6">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J6">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N6">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O6">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P6">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q6">
-        <v>63.40205259467379</v>
+        <v>18.15474121915278</v>
       </c>
       <c r="R6">
-        <v>570.6184733520641</v>
+        <v>163.392670972375</v>
       </c>
       <c r="S6">
-        <v>0.03438581037773527</v>
+        <v>0.01135281794448262</v>
       </c>
       <c r="T6">
-        <v>0.03438581037773527</v>
+        <v>0.01135281794448262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.682841</v>
       </c>
       <c r="I7">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J7">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N7">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O7">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P7">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q7">
-        <v>26.66422335606466</v>
+        <v>28.834342934484</v>
       </c>
       <c r="R7">
-        <v>239.978010204582</v>
+        <v>259.509086410356</v>
       </c>
       <c r="S7">
-        <v>0.01446121837809779</v>
+        <v>0.01803116012133671</v>
       </c>
       <c r="T7">
-        <v>0.01446121837809779</v>
+        <v>0.01803116012133671</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.682841</v>
       </c>
       <c r="I8">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J8">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.929707</v>
       </c>
       <c r="O8">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P8">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q8">
         <v>29.156100450843</v>
@@ -948,10 +948,10 @@
         <v>262.404904057587</v>
       </c>
       <c r="S8">
-        <v>0.01581267641074937</v>
+        <v>0.0182323667626982</v>
       </c>
       <c r="T8">
-        <v>0.01581267641074937</v>
+        <v>0.0182323667626982</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.682841</v>
       </c>
       <c r="I9">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J9">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N9">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O9">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P9">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q9">
-        <v>24.61892065556233</v>
+        <v>33.199702606859</v>
       </c>
       <c r="R9">
-        <v>221.570285900061</v>
+        <v>298.797323461731</v>
       </c>
       <c r="S9">
-        <v>0.01335195790550465</v>
+        <v>0.02076097780501573</v>
       </c>
       <c r="T9">
-        <v>0.01335195790550465</v>
+        <v>0.02076097780501573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.682841</v>
       </c>
       <c r="I10">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J10">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N10">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O10">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P10">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q10">
-        <v>4.762932541466</v>
+        <v>4.889428707718666</v>
       </c>
       <c r="R10">
-        <v>42.86639287319399</v>
+        <v>44.004858369468</v>
       </c>
       <c r="S10">
-        <v>0.002583154464411662</v>
+        <v>0.003057537053334398</v>
       </c>
       <c r="T10">
-        <v>0.002583154464411662</v>
+        <v>0.003057537053334398</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.682841</v>
       </c>
       <c r="I11">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J11">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N11">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O11">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P11">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q11">
-        <v>30.82518235584467</v>
+        <v>20.27232073370833</v>
       </c>
       <c r="R11">
-        <v>277.426641202602</v>
+        <v>182.450886603375</v>
       </c>
       <c r="S11">
-        <v>0.01671789527262448</v>
+        <v>0.01267701719477834</v>
       </c>
       <c r="T11">
-        <v>0.01671789527262448</v>
+        <v>0.01267701719477834</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H12">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I12">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J12">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N12">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O12">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P12">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q12">
-        <v>182.4164121913495</v>
+        <v>146.275775390972</v>
       </c>
       <c r="R12">
-        <v>1641.747709722146</v>
+        <v>1316.481978518748</v>
       </c>
       <c r="S12">
-        <v>0.09893269859098344</v>
+        <v>0.09147154606366965</v>
       </c>
       <c r="T12">
-        <v>0.09893269859098344</v>
+        <v>0.09147154606366965</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H13">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I13">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J13">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.929707</v>
       </c>
       <c r="O13">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P13">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q13">
-        <v>199.463947129129</v>
+        <v>147.908041827569</v>
       </c>
       <c r="R13">
-        <v>1795.175524162161</v>
+        <v>1331.172376448121</v>
       </c>
       <c r="S13">
-        <v>0.1081783504238319</v>
+        <v>0.09249226144968825</v>
       </c>
       <c r="T13">
-        <v>0.1081783504238319</v>
+        <v>0.09249226144968825</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H14">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I14">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J14">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N14">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O14">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P14">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q14">
-        <v>168.4240008809314</v>
+        <v>168.4211168814304</v>
       </c>
       <c r="R14">
-        <v>1515.816007928383</v>
+        <v>1515.790051932873</v>
       </c>
       <c r="S14">
-        <v>0.09134397894616023</v>
+        <v>0.1053198310502019</v>
       </c>
       <c r="T14">
-        <v>0.09134397894616024</v>
+        <v>0.1053198310502019</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H15">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I15">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J15">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N15">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O15">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P15">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q15">
-        <v>32.58437548026467</v>
+        <v>24.80392832482711</v>
       </c>
       <c r="R15">
-        <v>293.259379322382</v>
+        <v>223.235354923444</v>
       </c>
       <c r="S15">
-        <v>0.01767198553813748</v>
+        <v>0.01551079572991561</v>
       </c>
       <c r="T15">
-        <v>0.01767198553813748</v>
+        <v>0.01551079572991561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H16">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I16">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J16">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N16">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O16">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P16">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q16">
-        <v>210.8825408266896</v>
+        <v>102.8408880700139</v>
       </c>
       <c r="R16">
-        <v>1897.942867440206</v>
+        <v>925.567992630125</v>
       </c>
       <c r="S16">
-        <v>0.1143711719744974</v>
+        <v>0.06431013614647749</v>
       </c>
       <c r="T16">
-        <v>0.1143711719744974</v>
+        <v>0.06431013614647749</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H17">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I17">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J17">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N17">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O17">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P17">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q17">
-        <v>8.688462078755334</v>
+        <v>5.933445057959999</v>
       </c>
       <c r="R17">
-        <v>78.196158708798</v>
+        <v>53.40100552163999</v>
       </c>
       <c r="S17">
-        <v>0.004712147277378878</v>
+        <v>0.003710398331403673</v>
       </c>
       <c r="T17">
-        <v>0.004712147277378878</v>
+        <v>0.003710398331403674</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H18">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I18">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J18">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.929707</v>
       </c>
       <c r="O18">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P18">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q18">
-        <v>9.500433211527001</v>
+        <v>5.99965535967</v>
       </c>
       <c r="R18">
-        <v>85.50389890374301</v>
+        <v>53.99689823703</v>
       </c>
       <c r="S18">
-        <v>0.005152516070833791</v>
+        <v>0.003751802033736258</v>
       </c>
       <c r="T18">
-        <v>0.005152516070833791</v>
+        <v>0.003751802033736258</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H19">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I19">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J19">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N19">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O19">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P19">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q19">
-        <v>8.022005954547666</v>
+        <v>6.83173574671</v>
       </c>
       <c r="R19">
-        <v>72.19805359092899</v>
+        <v>61.48562172039</v>
       </c>
       <c r="S19">
-        <v>0.004350697876701109</v>
+        <v>0.004272132069576923</v>
       </c>
       <c r="T19">
-        <v>0.004350697876701109</v>
+        <v>0.004272132069576923</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H20">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I20">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J20">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N20">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O20">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P20">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q20">
-        <v>1.551988153474</v>
+        <v>1.006132051213333</v>
       </c>
       <c r="R20">
-        <v>13.967893381266</v>
+        <v>9.055188460919998</v>
       </c>
       <c r="S20">
-        <v>0.000841713606577015</v>
+        <v>0.0006291708522665947</v>
       </c>
       <c r="T20">
-        <v>0.000841713606577015</v>
+        <v>0.0006291708522665947</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H21">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I21">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J21">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N21">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O21">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P21">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q21">
-        <v>10.04429884917534</v>
+        <v>4.171577675416666</v>
       </c>
       <c r="R21">
-        <v>90.39868964257801</v>
+        <v>37.54419907875</v>
       </c>
       <c r="S21">
-        <v>0.005447479087357845</v>
+        <v>0.002608638774774202</v>
       </c>
       <c r="T21">
-        <v>0.005447479087357845</v>
+        <v>0.002608638774774202</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H22">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I22">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J22">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N22">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O22">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P22">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q22">
-        <v>151.1205099573924</v>
+        <v>189.433042443536</v>
       </c>
       <c r="R22">
-        <v>1360.084589616532</v>
+        <v>1704.897381991824</v>
       </c>
       <c r="S22">
-        <v>0.08195951056666713</v>
+        <v>0.1184593499609946</v>
       </c>
       <c r="T22">
-        <v>0.08195951056666712</v>
+        <v>0.1184593499609946</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H23">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I23">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J23">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>155.929707</v>
       </c>
       <c r="O23">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P23">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q23">
-        <v>165.243319097018</v>
+        <v>191.546893464572</v>
       </c>
       <c r="R23">
-        <v>1487.189871873162</v>
+        <v>1723.922041181148</v>
       </c>
       <c r="S23">
-        <v>0.08961895087186801</v>
+        <v>0.1197812176491037</v>
       </c>
       <c r="T23">
-        <v>0.089618950871868</v>
+        <v>0.1197812176491037</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H24">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I24">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J24">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N24">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O24">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P24">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q24">
-        <v>139.5286783488095</v>
+        <v>218.1121549163694</v>
       </c>
       <c r="R24">
-        <v>1255.758105139286</v>
+        <v>1963.009394247324</v>
       </c>
       <c r="S24">
-        <v>0.07567273423512523</v>
+        <v>0.1363934388462677</v>
       </c>
       <c r="T24">
-        <v>0.07567273423512523</v>
+        <v>0.1363934388462677</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H25">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I25">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J25">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N25">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O25">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P25">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q25">
-        <v>26.99410310764933</v>
+        <v>32.12208989878577</v>
       </c>
       <c r="R25">
-        <v>242.9469279688439</v>
+        <v>289.0988090890719</v>
       </c>
       <c r="S25">
-        <v>0.01464012713769208</v>
+        <v>0.02008710750624718</v>
       </c>
       <c r="T25">
-        <v>0.01464012713769208</v>
+        <v>0.02008710750624718</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H26">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I26">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J26">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N26">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O26">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P26">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q26">
-        <v>174.7029048976725</v>
+        <v>133.1831074737222</v>
       </c>
       <c r="R26">
-        <v>1572.326144079052</v>
+        <v>1198.6479672635</v>
       </c>
       <c r="S26">
-        <v>0.09474931353808469</v>
+        <v>0.08328422609706526</v>
       </c>
       <c r="T26">
-        <v>0.09474931353808468</v>
+        <v>0.08328422609706528</v>
       </c>
     </row>
   </sheetData>
